--- a/Manuscript_tables/Table_S10.xlsx
+++ b/Manuscript_tables/Table_S10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiefisher/SurveyPaper/Manuscript_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1D31F6-5D3C-E941-B2E0-FC8A6A1E1AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E137B178-7E73-C445-9575-9E2969E0D3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="7260" windowWidth="27120" windowHeight="16540"/>
+    <workbookView xWindow="880" yWindow="1460" windowWidth="27120" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Subphylum_IsoTemp_enrichment_pv" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_S10" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>IsoTemp</t>
-  </si>
-  <si>
-    <t>NonsaccharosObs</t>
-  </si>
   <si>
     <t>SaccharosObs</t>
   </si>
@@ -54,11 +48,17 @@
   <si>
     <t>SaccharoEnrichment_pAdj</t>
   </si>
+  <si>
+    <t>Isolation Temperature (℃)</t>
+  </si>
+  <si>
+    <t>NonSaccharosObs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -894,16 +894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
@@ -917,34 +917,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1077,7 +1077,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
